--- a/data/opgaver.xlsx
+++ b/data/opgaver.xlsx
@@ -1,42 +1,249 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelronnestbrath/Documents/gruppe2projekt/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B50DF49-5159-C442-9609-275B78EBC010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Opgaver" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>ActivationCondition</t>
+  </si>
+  <si>
+    <t>Activated</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Velkomst</t>
+  </si>
+  <si>
+    <t>Start ved hovedindgangen til Nymindegablejren.</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Nymindegab, Hovedport</t>
+  </si>
+  <si>
+    <t>Start;Læs historie først</t>
+  </si>
+  <si>
+    <t>Lokalitet</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Gamle forsvarsstilling</t>
+  </si>
+  <si>
+    <t>Find hvilken type anlæg der tidligere lå her.</t>
+  </si>
+  <si>
+    <t>Nymindegablejr</t>
+  </si>
+  <si>
+    <t>Kanonstilling;Ammunitionsdepot;Lyttepost</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Hvad kan du se fra udkigspunktet?</t>
+  </si>
+  <si>
+    <t>Udkigspunktet</t>
+  </si>
+  <si>
+    <t>Indtrængningsrute;Skjult område;Ingen aktivitet</t>
+  </si>
+  <si>
+    <t>Mistænkelig aktivitet</t>
+  </si>
+  <si>
+    <t>Undersøg området ved Bygning B.</t>
+  </si>
+  <si>
+    <t>BYG B</t>
+  </si>
+  <si>
+    <t>Undersøg døren;Tjek spor;Afgiv melding</t>
+  </si>
+  <si>
+    <t>Historisk punkt</t>
+  </si>
+  <si>
+    <t>Læs skiltet og svar på et spørgsmål.</t>
+  </si>
+  <si>
+    <t>Historisk Punkt</t>
+  </si>
+  <si>
+    <t>Årstal;Placeringens formål</t>
+  </si>
+  <si>
+    <t>Gennemsøg område</t>
+  </si>
+  <si>
+    <t>Markér området som gennemsøgt.</t>
+  </si>
+  <si>
+    <t>Markeret område</t>
+  </si>
+  <si>
+    <t>Sikkert;Fundet genstand</t>
+  </si>
+  <si>
+    <t>Fund beslutning</t>
+  </si>
+  <si>
+    <t>Du har fundet en genstand. Hvad gør du?</t>
+  </si>
+  <si>
+    <t>Afspær;Indberet;Undersøg</t>
+  </si>
+  <si>
+    <t>Afhængighed</t>
+  </si>
+  <si>
+    <t>Start rute fra havn</t>
+  </si>
+  <si>
+    <t>Sæt kurs mod første waypoint.</t>
+  </si>
+  <si>
+    <t>Sø</t>
+  </si>
+  <si>
+    <t>Havnebassin</t>
+  </si>
+  <si>
+    <t>Kurs WP1;Sikkerhedstjek</t>
+  </si>
+  <si>
+    <t>Rute start</t>
+  </si>
+  <si>
+    <t>Nødsignal mod nord</t>
+  </si>
+  <si>
+    <t>Modtag nødsignal og reager.</t>
+  </si>
+  <si>
+    <t>Åben vand</t>
+  </si>
+  <si>
+    <t>Sejl mod signal;Ignorer</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Sigtet observation</t>
+  </si>
+  <si>
+    <t>Hvad observeres i søgeområdet?</t>
+  </si>
+  <si>
+    <t>Flåde;Person i vandet;Intet tegn</t>
+  </si>
+  <si>
+    <t>Man over bord</t>
+  </si>
+  <si>
+    <t>Marker og håndter muligt menneske i vandet.</t>
+  </si>
+  <si>
+    <t>Optagning;Assistance;Markér position</t>
+  </si>
+  <si>
+    <t>Boarding kontrol</t>
+  </si>
+  <si>
+    <t>Nær et fartøj der skal kontrolleres.</t>
+  </si>
+  <si>
+    <t>Radiokontakt;Boarding;Afvent</t>
+  </si>
+  <si>
+    <t>Undvig objekt</t>
+  </si>
+  <si>
+    <t>Reager på muligt minelignende objekt.</t>
+  </si>
+  <si>
+    <t>Ændr kurs;Vurdér igen;Stop maskine</t>
+  </si>
+  <si>
+    <t>Tilbage til havn</t>
+  </si>
+  <si>
+    <t>Afslut missionen og returnér.</t>
+  </si>
+  <si>
+    <t>Afslut;Debrief</t>
+  </si>
+  <si>
+    <t>Rute slut</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,13 +273,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,77 +612,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Type</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Location</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Radius</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Options</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ActivationCondition</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Activated</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Completed</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Difficulty</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Latitude</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Longitude</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Velkomst</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Start ved hovedindgangen til Nymindegablejren.</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Land</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Nymindegab, Hovedport</v>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
-      <c r="G2" t="str">
-        <v>Start;Læs historie først</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Lokalitet</v>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -475,40 +693,40 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>NaN</v>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>8.2501</v>
+        <v>8.2500999999999998</v>
       </c>
       <c r="M2">
-        <v>55.7398</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>55.739800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Gamle forsvarsstilling</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Find hvilken type anlæg der tidligere lå her.</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Land</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Nymindegablejr</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
-      <c r="G3" t="str">
-        <v>Kanonstilling;Ammunitionsdepot;Lyttepost</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Zone</v>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -516,40 +734,40 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>NaN</v>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>8.252</v>
+        <v>8.2520000000000007</v>
       </c>
       <c r="M3">
-        <v>55.7405</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>55.740499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Observation</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Hvad kan du se fra udkigspunktet?</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Land</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Udkigspunktet</v>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
       </c>
       <c r="F4">
         <v>25</v>
       </c>
-      <c r="G4" t="str">
-        <v>Indtrængningsrute;Skjult område;Ingen aktivitet</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Lokalitet</v>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -557,40 +775,40 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>NaN</v>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4">
-        <v>8.2498</v>
+        <v>8.2498000000000005</v>
       </c>
       <c r="M4">
-        <v>55.7412</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>55.741199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Mistænkelig aktivitet</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Undersøg området ved Bygning B.</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Land</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BYG B</v>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
       </c>
       <c r="F5">
         <v>15</v>
       </c>
-      <c r="G5" t="str">
-        <v>Undersøg døren;Tjek spor;Afgiv melding</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Lokalitet</v>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -598,40 +816,40 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>NaN</v>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5">
-        <v>8.248</v>
+        <v>8.2479999999999993</v>
       </c>
       <c r="M5">
-        <v>55.748</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>55.747999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Historisk punkt</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Læs skiltet og svar på et spørgsmål.</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Land</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Historisk Punkt</v>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" t="str">
-        <v>Årstal;Placeringens formål</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Lokalitet</v>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -639,40 +857,40 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>NaN</v>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6">
-        <v>8.2512</v>
+        <v>8.2512000000000008</v>
       </c>
       <c r="M6">
         <v>55.7395</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>Gennemsøg område</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Markér området som gennemsøgt.</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Land</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Markeret område</v>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
       <c r="F7">
         <v>50</v>
       </c>
-      <c r="G7" t="str">
-        <v>Sikkert;Fundet genstand</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Zone</v>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -680,40 +898,40 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>NaN</v>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
       <c r="L7">
-        <v>8.253</v>
+        <v>8.2530000000000001</v>
       </c>
       <c r="M7">
-        <v>55.742</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>55.741999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>Fund beslutning</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Du har fundet en genstand. Hvad gør du?</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Land</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Markeret område</v>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" t="str">
-        <v>Afspær;Indberet;Undersøg</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Afhængighed</v>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -721,40 +939,40 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>NaN</v>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
       <c r="L8">
-        <v>8.253</v>
+        <v>8.2530000000000001</v>
       </c>
       <c r="M8">
-        <v>55.742</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>55.741999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>Start rute fra havn</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Sæt kurs mod første waypoint.</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Havnebassin</v>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" t="str">
-        <v>Kurs WP1;Sikkerhedstjek</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Rute start</v>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -762,40 +980,40 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>NaN</v>
+      <c r="K9" t="s">
+        <v>19</v>
       </c>
       <c r="L9">
-        <v>8.5681</v>
+        <v>8.5680999999999994</v>
       </c>
       <c r="M9">
         <v>56.1541</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>Nødsignal mod nord</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Modtag nødsignal og reager.</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Åben vand</v>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
       </c>
       <c r="F10">
         <v>500</v>
       </c>
-      <c r="G10" t="str">
-        <v>Sejl mod signal;Ignorer</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Signal</v>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -803,8 +1021,8 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>NaN</v>
+      <c r="K10" t="s">
+        <v>19</v>
       </c>
       <c r="L10">
         <v>8.6</v>
@@ -813,30 +1031,30 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>Sigtet observation</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Hvad observeres i søgeområdet?</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Åben vand</v>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
       </c>
       <c r="F11">
         <v>75</v>
       </c>
-      <c r="G11" t="str">
-        <v>Flåde;Person i vandet;Intet tegn</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Radius</v>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -844,40 +1062,40 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>NaN</v>
+      <c r="K11" t="s">
+        <v>19</v>
       </c>
       <c r="L11">
-        <v>8.62</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="M11">
         <v>56.21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>Man over bord</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Marker og håndter muligt menneske i vandet.</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Åben vand</v>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
       </c>
       <c r="F12">
         <v>30</v>
       </c>
-      <c r="G12" t="str">
-        <v>Optagning;Assistance;Markér position</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Lokalitet</v>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -885,40 +1103,40 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>NaN</v>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
       <c r="L12">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="M12">
-        <v>56.212</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>56.212000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>Boarding kontrol</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Nær et fartøj der skal kontrolleres.</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Åben vand</v>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
       </c>
       <c r="F13">
         <v>40</v>
       </c>
-      <c r="G13" t="str">
-        <v>Radiokontakt;Boarding;Afvent</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Zone</v>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -926,40 +1144,40 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>NaN</v>
+      <c r="K13" t="s">
+        <v>19</v>
       </c>
       <c r="L13">
         <v>8.64</v>
       </c>
       <c r="M13">
-        <v>56.215</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>56.215000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>Undvig objekt</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Reager på muligt minelignende objekt.</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Åben vand</v>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
-      <c r="G14" t="str">
-        <v>Ændr kurs;Vurdér igen;Stop maskine</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Radius</v>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -967,40 +1185,40 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>NaN</v>
+      <c r="K14" t="s">
+        <v>19</v>
       </c>
       <c r="L14">
         <v>8.65</v>
       </c>
       <c r="M14">
-        <v>56.218</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>56.218000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>Tilbage til havn</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Afslut missionen og returnér.</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Åben vand</v>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15" t="str">
-        <v>Afslut;Debrief</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Rute slut</v>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1008,60 +1226,20 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>NaN</v>
+      <c r="K15" t="s">
+        <v>19</v>
       </c>
       <c r="L15">
-        <v>8.5681</v>
+        <v>8.5680999999999994</v>
       </c>
       <c r="M15">
         <v>56.1541</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Skriv titlen på holder her</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Sø</v>
-      </c>
-      <c r="E16" t="str">
-        <v>HER</v>
-      </c>
-      <c r="F16">
-        <v>345</v>
-      </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>56.5576</v>
-      </c>
-      <c r="M16">
-        <v>8.7979</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M16"/>
+    <ignoredError sqref="A1:M15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/opgaver.xlsx
+++ b/data/opgaver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelronnestbrath/Documents/gruppe2projekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B50DF49-5159-C442-9609-275B78EBC010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6B038E39-275E-F041-9801-5DA6DC366A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Lokalitet</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
     <t>Gamle forsvarsstilling</t>
   </si>
   <si>
@@ -237,6 +234,15 @@
   </si>
   <si>
     <t>Rute slut</t>
+  </si>
+  <si>
+    <t>Let</t>
+  </si>
+  <si>
+    <t>Øvet</t>
+  </si>
+  <si>
+    <t>Svær</t>
   </si>
 </sst>
 </file>
@@ -272,8 +278,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,43 +624,49 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="11" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -663,38 +677,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+      <c r="I2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L2">
         <v>8.2500999999999998</v>
@@ -704,38 +718,38 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L3">
         <v>8.2520000000000007</v>
@@ -745,38 +759,38 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L4">
         <v>8.2498000000000005</v>
@@ -786,38 +800,38 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L5">
         <v>8.2479999999999993</v>
@@ -827,38 +841,38 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L6">
         <v>8.2512000000000008</v>
@@ -868,38 +882,38 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L7">
         <v>8.2530000000000001</v>
@@ -909,38 +923,38 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L8">
         <v>8.2530000000000001</v>
@@ -950,38 +964,38 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L9">
         <v>8.5680999999999994</v>
@@ -991,38 +1005,38 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="2">
+        <v>500</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F10">
-        <v>500</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L10">
         <v>8.6</v>
@@ -1032,38 +1046,38 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L11">
         <v>8.6199999999999992</v>
@@ -1073,38 +1087,38 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L12">
         <v>8.6300000000000008</v>
@@ -1114,38 +1128,38 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L13">
         <v>8.64</v>
@@ -1155,38 +1169,38 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="L14">
         <v>8.65</v>
@@ -1196,38 +1210,38 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L15">
         <v>8.5680999999999994</v>
@@ -1239,7 +1253,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:M1 A14:J15 A2:J2 L2:M2 A3:J3 L3:M3 A4:J4 L4:M4 A5:J7 L5:M7 A8:J10 L8:M10 A11:J13 L11:M13 L14:M15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/opgaver.xlsx
+++ b/data/opgaver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelronnestbrath/Documents/gruppe2projekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6B038E39-275E-F041-9801-5DA6DC366A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9ECD28-54E4-9D4A-8CE9-340C59F9524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Opgaver" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -624,7 +623,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15">
         <v>8.5680999999999994</v>

--- a/data/opgaver.xlsx
+++ b/data/opgaver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelronnestbrath/Documents/gruppe2projekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9ECD28-54E4-9D4A-8CE9-340C59F9524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315077DE-A65B-4149-8F8B-90F17ADB8F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opgaver" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,10 +710,10 @@
         <v>71</v>
       </c>
       <c r="L2">
+        <v>55.739800000000002</v>
+      </c>
+      <c r="M2">
         <v>8.2500999999999998</v>
-      </c>
-      <c r="M2">
-        <v>55.739800000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -751,10 +751,10 @@
         <v>72</v>
       </c>
       <c r="L3">
+        <v>55.740499999999997</v>
+      </c>
+      <c r="M3">
         <v>8.2520000000000007</v>
-      </c>
-      <c r="M3">
-        <v>55.740499999999997</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -792,10 +792,10 @@
         <v>73</v>
       </c>
       <c r="L4">
+        <v>55.741199999999999</v>
+      </c>
+      <c r="M4">
         <v>8.2498000000000005</v>
-      </c>
-      <c r="M4">
-        <v>55.741199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -833,10 +833,10 @@
         <v>71</v>
       </c>
       <c r="L5">
+        <v>55.747999999999998</v>
+      </c>
+      <c r="M5">
         <v>8.2479999999999993</v>
-      </c>
-      <c r="M5">
-        <v>55.747999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -874,10 +874,10 @@
         <v>72</v>
       </c>
       <c r="L6">
+        <v>55.7395</v>
+      </c>
+      <c r="M6">
         <v>8.2512000000000008</v>
-      </c>
-      <c r="M6">
-        <v>55.7395</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="L7">
+        <v>55.741999999999997</v>
+      </c>
+      <c r="M7">
         <v>8.2530000000000001</v>
-      </c>
-      <c r="M7">
-        <v>55.741999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -956,10 +956,10 @@
         <v>71</v>
       </c>
       <c r="L8">
+        <v>55.741999999999997</v>
+      </c>
+      <c r="M8">
         <v>8.2530000000000001</v>
-      </c>
-      <c r="M8">
-        <v>55.741999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -997,10 +997,10 @@
         <v>72</v>
       </c>
       <c r="L9">
+        <v>56.1541</v>
+      </c>
+      <c r="M9">
         <v>8.5680999999999994</v>
-      </c>
-      <c r="M9">
-        <v>56.1541</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1038,10 +1038,10 @@
         <v>73</v>
       </c>
       <c r="L10">
+        <v>56.2</v>
+      </c>
+      <c r="M10">
         <v>8.6</v>
-      </c>
-      <c r="M10">
-        <v>56.2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1079,10 +1079,10 @@
         <v>71</v>
       </c>
       <c r="L11">
+        <v>56.21</v>
+      </c>
+      <c r="M11">
         <v>8.6199999999999992</v>
-      </c>
-      <c r="M11">
-        <v>56.21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1120,10 +1120,10 @@
         <v>72</v>
       </c>
       <c r="L12">
+        <v>56.212000000000003</v>
+      </c>
+      <c r="M12">
         <v>8.6300000000000008</v>
-      </c>
-      <c r="M12">
-        <v>56.212000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1161,10 +1161,10 @@
         <v>73</v>
       </c>
       <c r="L13">
+        <v>56.215000000000003</v>
+      </c>
+      <c r="M13">
         <v>8.64</v>
-      </c>
-      <c r="M13">
-        <v>56.215000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1202,10 +1202,10 @@
         <v>71</v>
       </c>
       <c r="L14">
+        <v>56.218000000000004</v>
+      </c>
+      <c r="M14">
         <v>8.65</v>
-      </c>
-      <c r="M14">
-        <v>56.218000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1243,16 +1243,16 @@
         <v>73</v>
       </c>
       <c r="L15">
+        <v>56.1541</v>
+      </c>
+      <c r="M15">
         <v>8.5680999999999994</v>
-      </c>
-      <c r="M15">
-        <v>56.1541</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M1 A14:J15 A2:J2 L2:M2 A3:J3 L3:M3 A4:J4 L4:M4 A5:J7 L5:M7 A8:J10 L8:M10 A11:J13 L11:M13 L14:M15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:M1 A14:J15 A2:J2 A3:J3 A4:J4 A5:J7 A8:J10 A11:J13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/opgaver.xlsx
+++ b/data/opgaver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelronnestbrath/Documents/gruppe2projekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315077DE-A65B-4149-8F8B-90F17ADB8F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5700C82-4FDA-C346-A8F8-68573102DE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,6 +248,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -277,10 +280,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +627,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,7 +757,7 @@
       <c r="L3">
         <v>55.740499999999997</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>8.2520000000000007</v>
       </c>
     </row>
@@ -832,10 +836,10 @@
       <c r="K5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>55.747999999999998</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>8.2479999999999993</v>
       </c>
     </row>
@@ -914,10 +918,10 @@
       <c r="K7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>55.741999999999997</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>8.2530000000000001</v>
       </c>
     </row>
@@ -955,10 +959,10 @@
       <c r="K8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>55.741999999999997</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>8.2530000000000001</v>
       </c>
     </row>
@@ -1037,10 +1041,10 @@
       <c r="K10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>56.2</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>8.6</v>
       </c>
     </row>
@@ -1078,10 +1082,10 @@
       <c r="K11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>56.21</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>8.6199999999999992</v>
       </c>
     </row>
@@ -1119,10 +1123,10 @@
       <c r="K12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>56.212000000000003</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>8.6300000000000008</v>
       </c>
     </row>
@@ -1160,10 +1164,10 @@
       <c r="K13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>56.215000000000003</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>8.64</v>
       </c>
     </row>
@@ -1201,10 +1205,10 @@
       <c r="K14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>56.218000000000004</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>8.65</v>
       </c>
     </row>

--- a/data/opgaver.xlsx
+++ b/data/opgaver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelronnestbrath/Documents/gruppe2projekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5700C82-4FDA-C346-A8F8-68573102DE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73A5C4-47FF-A342-991F-220ABC7C46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +627,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,6 +636,7 @@
     <col min="2" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
     <col min="7" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="13" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -672,10 +673,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -713,10 +714,10 @@
       <c r="K2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>55.739800000000002</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>8.2500999999999998</v>
       </c>
     </row>
@@ -754,7 +755,7 @@
       <c r="K3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>55.740499999999997</v>
       </c>
       <c r="M3" s="3">
@@ -795,10 +796,10 @@
       <c r="K4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>55.741199999999999</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>8.2498000000000005</v>
       </c>
     </row>
@@ -877,10 +878,10 @@
       <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>55.7395</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>8.2512000000000008</v>
       </c>
     </row>
@@ -1000,10 +1001,10 @@
       <c r="K9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>56.1541</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>8.5680999999999994</v>
       </c>
     </row>
@@ -1246,10 +1247,10 @@
       <c r="K15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>56.1541</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>8.5680999999999994</v>
       </c>
     </row>
